--- a/New files/Central Maine Healthcare/Invoice-10182990-Smith, Sherri A-Nursing Residency.xlsx
+++ b/New files/Central Maine Healthcare/Invoice-10182990-Smith, Sherri A-Nursing Residency.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{058DA94A-786D-46D5-BDA1-D86F904C4CE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0A28B91-868B-49B9-8939-0EDF2BF43C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{8AA843C2-F676-46D8-8881-DC81CBEB1084}"/>
+    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF6CB03-0F91-49BB-B9FB-85E9FAAE7FD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>PO Box 674907</t>
   </si>
   <si>
-    <t>Dallas, TX 75267-4907</t>
+    <t>Dallas, TX 7526 - 4907</t>
   </si>
   <si>
     <t>PNC Bank. N.A</t>
@@ -571,7 +571,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1773F33B-2E3C-5347-5570-8E522A114659}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97AF292E-A3DB-1149-6D7F-B41CC2768598}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -922,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6AD277-0A7D-4BCA-A14F-B4E70B6DEA86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7910927-ECD5-427D-B753-399934200AB3}">
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>

--- a/New files/Central Maine Healthcare/Invoice-10182990-Smith, Sherri A-Nursing Residency.xlsx
+++ b/New files/Central Maine Healthcare/Invoice-10182990-Smith, Sherri A-Nursing Residency.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0A28B91-868B-49B9-8939-0EDF2BF43C1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58EBD3F5-F1CD-47E3-BBE0-0CEDCC2D90FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1425" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF6CB03-0F91-49BB-B9FB-85E9FAAE7FD7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{5E727D59-F607-4909-8CEC-F2597D453006}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="45">
   <si>
     <t>Bill to</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Orientation</t>
+  </si>
+  <si>
+    <t>Non-Billable Orientation</t>
   </si>
   <si>
     <t>Total Amount Due</t>
@@ -558,20 +561,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1684020</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>883920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97AF292E-A3DB-1149-6D7F-B41CC2768598}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5449BE01-1CD9-C178-BFCB-245241AD2D25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -922,24 +925,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7910927-ECD5-427D-B753-399934200AB3}">
-  <dimension ref="A1:O40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE38D1-AE1C-4192-BBCA-F9137CC4E393}">
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1"/>
@@ -1156,7 +1159,7 @@
         <v>21</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J22" s="27"/>
       <c r="O22" s="38"/>
@@ -1250,7 +1253,7 @@
         <v>29</v>
       </c>
       <c r="E29" s="18">
-        <v>31.75</v>
+        <v>21.75</v>
       </c>
       <c r="F29" s="16">
         <v>2175</v>
@@ -1259,19 +1262,28 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="41"/>
-      <c r="D30" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="21">
-        <v>31.75</v>
-      </c>
-      <c r="F30" s="20">
-        <v>2175</v>
+      <c r="D30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="18">
+        <v>10</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
       </c>
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="41"/>
+      <c r="D31" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="21">
+        <v>31.75</v>
+      </c>
+      <c r="F31" s="20">
+        <v>2175</v>
+      </c>
       <c r="O31" s="38"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -1279,119 +1291,78 @@
       <c r="O32" s="38"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="41"/>
+      <c r="O33" s="38"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B34" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="29" t="s">
+      <c r="C34" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="D34" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="E34" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="F34" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" s="34" t="s">
+      <c r="H34" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="J33" s="34" t="s">
+      <c r="I34" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="K33" s="30" t="s">
+      <c r="J34" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="L33" s="30" t="s">
+      <c r="K34" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="M33" s="36" t="s">
+      <c r="L34" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="N33" s="29" t="s">
+      <c r="M34" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="O33" s="38"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="43">
-        <v>116050</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="12" t="s">
+      <c r="N34" s="29" t="s">
         <v>42</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" s="33">
-        <v>45413</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H34" s="35">
-        <v>9.75</v>
-      </c>
-      <c r="I34" s="35">
-        <v>0</v>
-      </c>
-      <c r="J34" s="35">
-        <v>0</v>
-      </c>
-      <c r="K34" s="31">
-        <v>100</v>
-      </c>
-      <c r="L34" s="31">
-        <v>975</v>
-      </c>
-      <c r="M34" s="37">
-        <v>10182990</v>
-      </c>
-      <c r="N34" s="12" t="s">
-        <v>13</v>
       </c>
       <c r="O34" s="38"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="43">
-        <v>206550</v>
+        <v>116050</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F35" s="33">
-        <v>45414</v>
+        <v>45413</v>
       </c>
       <c r="G35" s="12" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="35">
-        <v>0.25</v>
+        <v>9.75</v>
       </c>
       <c r="I35" s="35">
         <v>0</v>
@@ -1403,7 +1374,7 @@
         <v>100</v>
       </c>
       <c r="L35" s="31">
-        <v>25</v>
+        <v>975</v>
       </c>
       <c r="M35" s="37">
         <v>10182990</v>
@@ -1421,10 +1392,10 @@
         <v>25</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>19</v>
@@ -1436,7 +1407,7 @@
         <v>29</v>
       </c>
       <c r="H36" s="35">
-        <v>9.75</v>
+        <v>0.25</v>
       </c>
       <c r="I36" s="35">
         <v>0</v>
@@ -1445,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="31">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L36" s="31">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M36" s="37">
         <v>10182990</v>
@@ -1460,28 +1431,28 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="43">
-        <v>206650</v>
+        <v>206550</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>19</v>
       </c>
       <c r="F37" s="33">
-        <v>45415</v>
+        <v>45414</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H37" s="35">
-        <v>0.25</v>
+        <v>9.75</v>
       </c>
       <c r="I37" s="35">
         <v>0</v>
@@ -1511,10 +1482,10 @@
         <v>26</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>19</v>
@@ -1523,10 +1494,10 @@
         <v>45415</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38" s="35">
-        <v>11.75</v>
+        <v>0.25</v>
       </c>
       <c r="I38" s="35">
         <v>0</v>
@@ -1535,10 +1506,10 @@
         <v>0</v>
       </c>
       <c r="K38" s="31">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L38" s="31">
-        <v>1175</v>
+        <v>0</v>
       </c>
       <c r="M38" s="37">
         <v>10182990</v>
@@ -1549,25 +1520,70 @@
       <c r="O38" s="38"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="41"/>
+      <c r="A39" s="43">
+        <v>206650</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="33">
+        <v>45415</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="35">
+        <v>11.75</v>
+      </c>
+      <c r="I39" s="35">
+        <v>0</v>
+      </c>
+      <c r="J39" s="35">
+        <v>0</v>
+      </c>
+      <c r="K39" s="31">
+        <v>100</v>
+      </c>
+      <c r="L39" s="31">
+        <v>1175</v>
+      </c>
+      <c r="M39" s="37">
+        <v>10182990</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>13</v>
+      </c>
       <c r="O39" s="38"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="44"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="39"/>
-      <c r="N40" s="39"/>
-      <c r="O40" s="40"/>
+      <c r="A40" s="41"/>
+      <c r="O40" s="38"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="44"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/New files/Central Maine Healthcare/Invoice-10182990-Smith, Sherri A-Nursing Residency.xlsx
+++ b/New files/Central Maine Healthcare/Invoice-10182990-Smith, Sherri A-Nursing Residency.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58EBD3F5-F1CD-47E3-BBE0-0CEDCC2D90FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDE87073-9411-4D1B-B7B0-C5E291D72E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{5E727D59-F607-4909-8CEC-F2597D453006}"/>
+    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{B63050A5-BADC-4D2F-9C4A-C8E56BE1AF66}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -561,20 +561,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>883920</xdr:colOff>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5449BE01-1CD9-C178-BFCB-245241AD2D25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AB3407-62F8-B2ED-35D8-4555779A4E0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -925,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82DE38D1-AE1C-4192-BBCA-F9137CC4E393}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CD1B20-0B97-4507-AE43-9C2558DAA498}">
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -933,15 +933,15 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3.33203125" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>

--- a/New files/Central Maine Healthcare/Invoice-10182990-Smith, Sherri A-Nursing Residency.xlsx
+++ b/New files/Central Maine Healthcare/Invoice-10182990-Smith, Sherri A-Nursing Residency.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDE87073-9411-4D1B-B7B0-C5E291D72E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A449292F-45D8-4794-8964-4307F665DA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1740" windowWidth="29040" windowHeight="15840" xr2:uid="{B63050A5-BADC-4D2F-9C4A-C8E56BE1AF66}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{894CF999-2C5E-4D7B-969D-F9454E24FF05}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -561,20 +561,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>134620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:colOff>129540</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4AB3407-62F8-B2ED-35D8-4555779A4E0F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5409C95E-71CB-6BC0-932C-9876B9A1E949}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -925,7 +925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58CD1B20-0B97-4507-AE43-9C2558DAA498}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8BD05F-9137-4B73-A012-95837C416051}">
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
@@ -935,17 +935,18 @@
     <col min="1" max="1" width="2.77734375" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="3.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">

--- a/New files/Central Maine Healthcare/Invoice-10182990-Smith, Sherri A-Nursing Residency.xlsx
+++ b/New files/Central Maine Healthcare/Invoice-10182990-Smith, Sherri A-Nursing Residency.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A449292F-45D8-4794-8964-4307F665DA7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9FBAC9B-E897-45D1-8070-8AC0C32593C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{894CF999-2C5E-4D7B-969D-F9454E24FF05}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3E6D7E27-B70D-444E-ACF7-E20837F842A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Invoice_Summary" sheetId="1" r:id="rId1"/>
@@ -561,20 +561,20 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>134620</xdr:rowOff>
+      <xdr:rowOff>136525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1691640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5409C95E-71CB-6BC0-932C-9876B9A1E949}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2027C824-463A-FA90-9411-35DCEB7BA6FA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -925,23 +925,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8BD05F-9137-4B73-A012-95837C416051}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ABAFBDC-0950-4FA5-AE79-C19405D22A8D}">
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
